--- a/medicine/Enfance/Margaret_Wilson_(écrivain)/Margaret_Wilson_(écrivain).xlsx
+++ b/medicine/Enfance/Margaret_Wilson_(écrivain)/Margaret_Wilson_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Margaret_Wilson_(%C3%A9crivain)</t>
+          <t>Margaret_Wilson_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Margaret Wilson, née le 16 janvier 1882 à Traer, dans l’Iowa et morte le 6 octobre 1973 (à 91 ans) à Droitwich Spa en Angleterre, est une écrivaine américaine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Margaret_Wilson_(%C3%A9crivain)</t>
+          <t>Margaret_Wilson_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle obtient le prix Pulitzer en 1924 pour The Able McLaughlins.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Margaret_Wilson_(%C3%A9crivain)</t>
+          <t>Margaret_Wilson_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,22 +556,127 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ses œuvres ne sont pas traduites en français.
-Romans
-The Able McLaughlins (1923)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses œuvres ne sont pas traduites en français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Margaret_Wilson_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margaret_Wilson_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Able McLaughlins (1923)
 The Kenworthys (1925)
 The Painted Room (1926)
 Daughters of India (1928)
 Trousers of Taffeta (1929)
 The Dark Duty (1931)
 The Valiant Wife (1933)
-The Law and the McLaughlins (1936)
-Roman de littérature d'enfance et de jeunesse
-The Devon Treasure Mystery (1939)
-Autre publication
-The Crime of Punishment (1931)</t>
+The Law and the McLaughlins (1936)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Margaret_Wilson_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margaret_Wilson_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Roman de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Devon Treasure Mystery (1939)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Margaret_Wilson_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margaret_Wilson_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Crime of Punishment (1931)</t>
         </is>
       </c>
     </row>
